--- a/P0103/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0103/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ACE49FA-BF7D-4993-9CBB-1AD5061C5B88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -90,13 +90,314 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0103</t>
+  </si>
+  <si>
+    <t>P0001</t>
+  </si>
+  <si>
+    <t>COL_ACTO_ALT_INF</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/COL_ACTO_ALT_INF.pdf</t>
+  </si>
+  <si>
+    <t>UT PMAA CORREGIMIENTOS 2019
+CONSULTOR</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El documento titulado "Diseños del Sistema de Acueducto del Corregimiento Colorado, municipio de Nechí - Antioquia" se centra en la planificación de un sistema de acueducto para el corregimiento de Colorado, en el municipio de Nechí, Antioquia. Este informe presenta diversas alternativas de diseño para las fuentes de abastecimiento, materiales de distribución y tanques de almacenamiento, evaluando su viabilidad económica y técnica. Se consideran opciones como un pozo y una barcaza como fuentes de abastecimiento, además de diferentes materiales para tuberías, como PVC y PEAD, así como tanques de almacenamiento en vidrio fusionado al acero y concreto. La alternativa elegida es la barcaza flotante, seleccionada por su constante disponibilidad de agua, lo que garantiza un suministro fiable. Aunque sus costos operativos de tratamiento y bombeo son ligeramente inferiores a los del agua de pozo, la barcaza representa una solución económica y viable a largo plazo, alineada con las necesidades del corregimiento y la normativa vigente. El informe también enfatiza la importancia de un diagnóstico ambiental, un plan de capacitación para operadores y un enfoque en la sostenibilidad, asegurando que la infraestructura propuesta beneficie a la comunidad de manera integral y duradera.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento titulado "Diseños del Sistema de Acueducto del Corregimiento Colorado, municipio de Nechí - Antioquia" se enfoca en la planificación y diseño de un sistema integral de acueducto para el corregimiento de Colorado, ubicado en el municipio de Nechí, en el departamento de Antioquia, Colombia. Este informe es parte de un esfuerzo más amplio dentro del Proyecto de Estudios y Diseños de Acueductos y Alcantarillado, que busca mejorar el acceso al agua potable y servicios básicos en áreas rurales.
+El objetivo principal del documento es presentar una serie de alternativas de diseño para los componentes del sistema de acueducto, que incluye captación, potabilización, almacenamiento y distribución del agua. El informe destaca la importancia de esas infraestructuras en la mejora de la calidad de vida de la población, así como su alineación con las políticas ambientales y de desarrollo sostenible del municipio. Se ha previsto un horizonte de planificación de 25 años, orientado a asegurar la viabilidad del sistema ante el crecimiento demográfico proyectado.
+El contenido del documento se divide en varias secciones clave. Primero, se presentan los parámetros para la evaluación y proyección del sistema de acueducto, donde se analizan las características demográficas actuales y futuras de la población del corregimiento. Se utilizan métodos de cálculo demográfico que consideran variables como la tasa de natalidad y el crecimiento migratorio, lo que permite establecer una base cuantitativa para la planificación.
+A continuación, se abordan las alternativas de diseño para el sistema de acueducto, evaluando cada opción en términos de costos operativos, mantenibilidad y adecuación técnica. Para ello, se desarrolla una matriz de evaluación que clasifica las propuestas según su viabilidad económica y su capacidad para satisfacer los requerimientos normativos, específicamente en conformidad con la normativa RAS 2000 y la resolución 2320.
+En el apartado de evaluación de tecnologías de potabilización, se investigan diversas metodologías y procesos adecuados para el tratamiento de aguas, considerando las características específicas de las fuentes hídricas en la región. Esto incluye el análisis de distintas tecnologías, priorizando aquellas que son menos complejas y más efectivas desde un punto de vista operacional y económico.
+El estudio se basa en un enfoque de diagnóstico ambiental, donde se consideran las condiciones locales y los impactos potenciales de las intervenciones propuestas. Se enfatiza la necesidad de un plan de capacitación para los operadores del sistema, fundamental para garantizar un funcionamiento óptimo y duradero de la infraestructura.
+Finalmente, el documento no solo proporciona recomendaciones sobre la implementación del sistema, sino que también sugiere un marco general para la gestión continua y el monitoreo de los componentes del acueducto. La información presentada en el informe está diseñada para ser usada por los tomadores de decisiones en el ámbito municipal y regional, contribuyendo a la planificación y desarrollo rural del municipio de Nechí.
+</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/COL_ALT_TANQUE.xls
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/Col_Alternativa.docx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/Estudio Tarifario/1.CUERPO TARIFAS AA COLORADO.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/Estudio Tarifario/SIMULADOR TARIFAS COLORADO.xls
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/Estudio Tarifario/SOCIALIZACION TARIFAS COLORADO.ppt
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/Estudio Tarifario/FORMATOS/2. Aprobación por Junta Tarifaria Local - COLORADOS.doc
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/Estudio Tarifario/FORMATOS/3. Aviso de Convocatoria a vocales de control - COLORADOS.doc
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/Estudio Tarifario/FORMATOS/4. Formato remisorio de Estudio de Costos - COLORADOS.doc
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/TANQUE FVA/COL_COTIZACION_TANQUE_FVFA.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/TANQUE FVA/Caracteristicas tecnicas garantizadas Nechi elevados.xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/TANQUE FVA/Fabricacion Paso a Paso.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ALTERNATIVAS/TANQUE FVA/Montaje paso a paso aquastore PDF.pdf</t>
+  </si>
+  <si>
+    <t>Variable: Infraestructura para el agua</t>
+  </si>
+  <si>
+    <t>Sistema de acueducto, corregimiento Colorado, Nechí, Antioquia, alternativas de diseño, fuentes de abastecimiento, pozo, barcaza flotante, materiales de distribución, PVC, PEAD, tanques de almacenamiento, vidrio fusionado al acero, concreto, viabilidad económica, tratamiento de agua, costos operativos, sostenibilidad, diagnóstico ambiental, capacitación, infraestructura</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>COL_AC_DÑO_PGIO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/PGIO/COL_AC_DÑO_PGIO.pdf</t>
+  </si>
+  <si>
+    <t>Este informe presenta un Plan de Gestión Integral de Obra cuyo objetivo principal es diseñar y gestionar un sistema de acueducto que garantice el acceso al agua potable para la población rural del corregimiento Colorado. Este corregimiento se encuentra a menos de 20 kilómetros de la cabecera municipal de Nechí, en el departamento de Antioquia, Colombia, y el proyecto busca mejorar la calidad de vida de más de 250 familias y 920 personas en total.
+El contenido del documento se organiza en varias secciones esenciales. La introducción contextualiza la importancia del proyecto, resaltando su relevancia para la comunidad rural de Colorado. En la sección de identificación del proyecto, se delimitan los límites del área de intervención y se especifican los sectores de ejecución, teniendo en cuenta la geografía local y el uso del suelo. Además, se establecen políticas y objetivos claros que guiarán la ejecución del proyecto, enfatizando la necesidad de mejorar el acceso y la calidad del agua para los habitantes.</t>
+  </si>
+  <si>
+    <t>Entre los resultados clave, se destaca que la implementación del sistema de acueducto se proyecta como un generador de empleo y un impulsor del desarrollo social en la comunidad, contribuyendo significativamente a la calidad de vida de sus habitantes. Sin embargo, también se identificaron impactos negativos asociados a las actividades constructivas, como la pérdida de suelos y la contaminación del agua. Por otro lado, los impactos positivos incluyen el fortalecimiento de la infraestructura local y la promoción del desarrollo sostenible. Se subraya la importancia de realizar una gestión ambiental adecuada para minimizar la contaminación de fuentes hídricas y asegurar el manejo correcto de residuos.
+Entre las conclusiones del documento se establece que el proyecto es viable tanto técnica como económicamente, con proyecciones de abastecimiento que contemplan un horizonte de 25 años en función del crecimiento poblacional. Se enfatiza que, al implementar las recomendaciones técnicas y ambientales propuestas, el sistema de acueducto contribuirá al desarrollo sostenible del corregimiento de Colorado. Se recomienda fortalecer la capacitación del personal involucrado en la construcción, implementar un plan de gestión ambiental que contemple todas las fases del proyecto y fomentar la participación comunitaria en la gestión del agua para garantizar la sostenibilidad a largo plazo del proyecto. Se incluye también un análisis de los recursos necesarios para llevar a cabo el proyecto, considerando no solo los materiales y la mano de obra, sino también el financiamiento requerido. Finalmente, el documento concluye con un resumen de los hallazgos y recomendaciones para la implementación efectiva del proyecto. La metodología utilizada para el desarrollo del estudio incluye la identificación y evaluación de impactos ambientales de acuerdo con normativas colombianas, así como el uso de software especializado para modelar escenarios de vertimiento y captación de agua. Se considera esencial la participación de la comunidad para fomentar el involucramiento de los habitantes en el proceso de toma de decisiones. En conclusión, el documento se presenta como una guía técnica fundamental para la implementación del sistema de acueducto en el Corregimiento Colorado, buscando no solo el mejoramiento en el abastecimiento de agua, sino también un impacto social positivo en la comunidad.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Acueducto, potabilización, hidrogeología, sostenibilidad, impactos ambientales, gestión comunitaria, infraestructura, calidad de vida, desarrollo social, Nechí, Antioquia</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>COL_AC_DX_INF</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/DIAGNOSTICO/COL_AC_DX_INF.pdf</t>
+  </si>
+  <si>
+    <t>El documento titulado "Informe de Diagnóstico Integral - Diseños del Sistema de Acueducto del Corregimiento Colorado, municipio de Nechí - Antioquia" proporciona un análisis del sistema de acueducto en el corregimiento de Colorado, en la zona rural del municipio de Nechí, Antioquia. Su objetivo principal es evaluar el funcionamiento y la cobertura del sistema de acueducto existente, formulando una base sólida para futuros diseños e intervenciones en este sistema vital de abastecimiento de agua. La metodología empleada en el estudio integra una investigación de campo y un análisis de los datos obtenidos de fuentes oficiales y entidades que gestionan los servicios de acueducto y alcantarillado en la región. Se realizaron visitas técnicas al corregimiento para levantar información sobre los servicios disponibles y la población que los utiliza, permitiendo así evaluar la capacidad del sistema actual frente a las necesidades de la comunidad. También se incluye un censo de usuarios. El informe examina los componentes del sistema, incluyendo las fuentes de abastecimiento, las instalaciones de almacenamiento y distribución, y el estado de la infraestructura existente. Se identifican problemáticas significativas, como la obsolescencia de dicha infraestructura y el uso de pozo no autorizado. Asimismo, se discuten las condiciones de las redes de distribución y las fugas que han contribuido a la ineficiencia del servicio. Finalmente, se presentan proyecciones sobre el crecimiento poblacional y se discuten las implicaciones para el sistema de acueducto, resaltando la necesidad de reparaciones, expansiones y mejoramientos para asegurar el acceso al agua potable. El documento concluye que, dado el crecimiento poblacional y las deficiencias del sistema actual, es urgente realizar mejoras y llevar a cabo un plan de intervención bien estructurado.</t>
+  </si>
+  <si>
+    <t>El "Informe de Diagnóstico Integral" del sistema de acueducto del corregimiento Colorado, municipio de Nechí - Antioquia, contiene hallazgos críticos sobre la infraestructura y la cobertura del servicio de agua. En donde se presenta que el sistema de acueducto abastece a menos del 92% de los usuarios, con un número significativo de conexiones no legalizadas y una gestión operativa limitada a un solo fontanero. Se reporta que la red de distribución presenta deterioro, con tuberías colmatadas y fugas constantes. Se indicó que las conexiones han sido instaladas de manera improvisada y no técnica, lo que agrava la situación. El pozo profundo existente no cumple con normativas ambientales y está dañado, por lo que la comunidad ha comenzado a abastecerse del río Cauca con métodos de sedimentación inadecuados. La planta de tratamiento se encuentra en estado crítico y no es económicamente viable su optimización. Se observó que el tanque de almacenamiento presenta fallas severas, limitando su capacidad operativa. La falta de tratamiento adecuado y la gestión ineficiente de los recursos hídricos indican un riesgo significativo para la salud pública de la comunidad. Por último se concluye que es imperativo la reubicación del pozo de abastecimiento, así como la mejora o reemplazo de la planta de tratamiento para garantizar la disponibilidad de agua potable adecuada. La infraestructura de la red debe ser objeto de renovación para eliminar los problemas de fuga y mejorar la cobertura del servicio. Y que se requiere un enfoque formalizado en la legalización de las conexiones de agua, y una gestión más estructurada por parte de la Junta de Acción Comunal para garantizar el servicio a la población.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/DIAGNOSTICO</t>
+  </si>
+  <si>
+    <t>Variable: población, censo, caudal de demanda</t>
+  </si>
+  <si>
+    <t>Acueducto, Colorado, Nechí, diagnóstico, infraestructura, agua potable, abastecimiento, cobertura, demanda, planta de tratamiento, redes de distribución</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>COL_AC_DÑO_INF</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/DISEÑO/COL_AC_DÑO_INF.pdf</t>
+  </si>
+  <si>
+    <t>El documento "Informe de Diseño del Sistema de Acueducto del Corregimiento Colorado, municipio de Nechí - Antioquia" presenta un análisis técnico y detallado sobre el diseño de un sistema de abastecimiento de agua potable para el corregimiento Colorado, localizado a 20 kilómetros del casco urbano de Nechí, Antioquia, con el objetivo de mejorar la calidad y accesibilidad del agua en esta comunidad a lo largo de un horizonte de 25 años. Se presenta el contexto del proyecto, que permite entender la situación actual del sistema de acueducto existente, caracterizado por su deterioro y por el consumo de agua no apta para el uso humano. Se establece la importancia de diseñar un sistema eficiente que incluya componentes de captación, potabilización, almacenamiento y distribución. También se presentan los criterios y resultados de cálculos necesarios para la formulación del sistema. Se identifican las condiciones hidráulicas y de calidad del agua que influyen en el diseño del sistema. Se abordan los antecedentes históricos y situacionales del corregimiento, la identificación de problemas críticos, índices que evidencian la problemática del agua y una descripción de la necesidad de un nuevo sistema de acueducto. Se subraya que un 38% de las familias actualmente recurren a aljibes y al río Cauca para satisfacer sus necesidades hídricas. Se detalla el diseño proyectado del sistema de acueducto, tomando en cuenta las premisas normativas del Reglamento de Acueducto y Saneamiento RAS 2000 y su resolución 0330/2017. Se presentan medidas de optimización para todos los componentes, así como el presupuesto estimado para las obras. Y se analizan diferentes subsistemas como el de captación, bombeo, distribución y almacenamiento.</t>
+  </si>
+  <si>
+    <t>El "Informe de Diseño del Sistema de Acueducto del Corregimiento Colorado, municipio de Nechí - Antioquia" proporciona un análisis sobre la implementación de un sistema de acueducto destinado a mejorar la disponibilidad y calidad del agua potable para la población del corregimiento. Este proyecto responde a una demanda creciente por un suministro de agua seguro, dado que actualmente un alto porcentaje de la población depende de fuentes no tratadas. El informe establece que un 38% de las familias del corregimiento Colorado acceden al agua a través de aljibes y del río Cauca, lo que pone de manifiesto la necesidad urgente de un sistema eficiente. Se propone un sistema de acueducto que incluye componentes de captación, potabilización, almacenamiento y distribución, diseñados según el Reglamento de Acueducto y Saneamiento RAS 2000. La planta de tratamiento proyectada tiene una capacidad de 3.82 l/s, diseñada para facilitar su mantenimiento y expansión futura. El diseño contempla tanques de almacenamiento con capacidades ajustadas para asegurar un suministro constante. Se identificó la necesidad de un tanque de succión y un tanque elevado, con capacidades de 66 m³ y 55 m³, respectivamente. Se modeló la red de distribución para maximizar la eficiencia, asegurando cobertura y presión adecuada a lo largo de las áreas residenciales del corregimiento. Se diseñaron sistemas de bombeo eficientes para agua cruda y potable, con especificaciones técnicas detalladas que garantizan un adecuado funcionamiento y control de pérdidas por golpe de ariete. El diseño del sistema de acueducto propuesto no solo responde a las necesidades inmediatas de la comunidad, sino que también ofrece una solución sostenible y escalable. La implementación del proyecto mejorará significativamente la calidad del agua suministrada y, por ende, la salud pública del corregimiento Colorado. Se concluye que, para la efectiva puesta en marcha del sistema, es fundamental seguir las recomendaciones normativas y técnicas propuestas en el informe.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/DISEÑO</t>
+  </si>
+  <si>
+    <t>Variable: capacidad, caudal de captación, caudal de demanda, volumen de almacenamiento</t>
+  </si>
+  <si>
+    <t>Acueducto, Colorado, Nechí, infraestructura, agua potable, abastecimiento, cobertura, demanda, planta de tratamiento, redes de distribución</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>SUELOS_CAPTACION_REDES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ESTUDIO DE SUELOS/SUELOS_CAPTACION_REDES.pdf</t>
+  </si>
+  <si>
+    <t>LAB M&amp;C S.A.S</t>
+  </si>
+  <si>
+    <t>El documento titulado "Estudio de Suelos y Cimentaciones para los Diseños del Sistema de Acueducto del Corregimiento Colorado, Municipio de Nechí - Antioquia", se centra en la evaluación geotécnica detallada del subsuelo en el corregimiento Colorado, localizado en el municipio de Nechí, en el departamento de Antioquía, Colombia. El objetivo principal de este informe es proporcionar las bases técnicas necesarias para el diseño adecuado del sistema de acueducto, asegurando su funcionalidad y seguridad estructural. 
+El contenido del informe se organiza en capítulos que abordan diferentes aspectos esenciales para la implementación del proyecto. En el Capítulo 1, se introduce el marco del estudio, señalando las actividades iniciales realizadas, incluyendo reuniones con la entidad contratante y visitas al sitio para definir las condiciones del área, así como la ubicación de los puntos de perforación. El Capítulo 2 expone aspectos generales del proyecto, en el que se detallan los criterios geotécnicos considerados y la importancia de la caracterización del suelo para la obra. Este capítulo da paso al Capítulo 3, titulado "Investigación del Subsuelo", donde se describe la metodología empleada para la exploración. Se realizaron sondeos en diversas áreas del corregimiento, como los barrios Las Cruces, El Centro, El Palmar y El Cerro, utilizando técnicas de perforación de percusión y avance por lavado, conforme a las Normas NS-010 y NS-035. Se complementaron los trabajos de campo con ensayos de laboratorio, incluyendo el ensayo de penetración estándar (SPT) y pruebas de clasificación como límites de Atterberg y granulometría, para determinar las propiedades físicas y mecánicas del suelo. En el Capítulo 4, se presenta la estratigrafía y las condiciones geotécnicas del subsuelo, resumen que permite entender la composición del terreno y su capacidad para soportar las cargas del proyecto. Las observaciones obtenidas sobre la resistencia del subsuelo, junto con la información estratigráfica, son críticas para el diseño de cimentaciones adecuadas. El Capítulo 5 aborda los aspectos sísmicos del subsuelo, evaluando cómo las características geológicas pueden afectar la estabilidad del sistema de acueducto en caso de eventos sísmicos. Se concluye en el Capítulo 6, donde se ofrecen recomendaciones sobre las cimentaciones y las prácticas de excavación, enfatizando la necesidad de reevaluar el suelo si se presentan características no contempladas en el informe original durante la fase de construcción. Finalmente, el documento incluye anexos que complementan la información presentada, tales como análisis de estabilidad, registros fotográficos y un plano de localización de los sondeos realizados. Utilizando enfoques metodológicos basados en normativas geotécnicas, el informe proporciona un marco sólido que respalda la seguridad y eficacia del diseño del sistema de acueducto en el corregimiento Colorado, contribuyendo al desarrollo sostenible del municipio de Nechí.</t>
+  </si>
+  <si>
+    <t>El documento "Estudio de Suelos y Cimentaciones para los Diseños del Sistema de Acueducto del Corregimiento Colorado, Municipio de Nechí - Antioquia" presenta los resultados de un exhaustivo análisis geotécnico con el fin de evaluar las condiciones del subsuelo y su capacidad para soportar las cargas del diseño del sistema de acueducto. El objetivo principal de este informe es proporcionar las bases técnicas necesarias para el diseño adecuado del sistema de acueducto, asegurando su funcionalidad y seguridad estructural. Los resultados claves presentes en este informe fueron los siguientes: 1. Exploración del Subsuelo: Se realizaron sondeos en ocho ubicaciones estratégicamente seleccionadas, alcanzando una profundidad de 2.0 m en cada uno, donde se utilizaron técnicas de perforación con equipo liviano, cumpliendo con las normas geotécnicas pertinentes (NS-010 y NS-035). 2. Ensayos de Laboratorio: Se llevaron a cabo diversos ensayos, incluyendo límites de Atterberg, granulometría y pruebas de penetración estándar (SPT). Los resultados revelaron características del suelo, como humedad natural y resistencia, que son fundamentales para el diseño de cimentaciones. 3. Estructura Estratigráfica: La investigación y los ensayos brindaron perfiles estratigráficos que caracterizan el subsuelo en la zona de estudio, lo cual es crucial para entender la estabilidad y comportamiento del terreno bajo carga. 4. Recomendaciones de Diseño: El informe incluye recomendaciones generales sobre cimentaciones y procedimientos para excavaciones y rellenos, garantizando la seguridad y funcionalidad del sistema de acueducto. El estudio concluye que las características geotécnicas del subsuelo son adecuadas para la implementación del sistema de acueducto, siempre que se sigan las recomendaciones delineadas en el informe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe ofrece recomendaciones específicas sobre las cimentaciones y prácticas de excavación, que son esenciales para garantizar la seguridad del proyecto. Esto demuestra una conciencia clara de la importancia de proporcionar información que facilite la planificación y la ejecución del proyecto de acueducto.
+Variable: profundidad, granulometria, humedad natural, Límites de Atterberg, plasticidad, No. de golpes, humedad, sondeo, </t>
+  </si>
+  <si>
+    <t>Suelos, cimentaciones, acueducto, geotecnia, estratigrafía, perforación, estabilidad, cargas, Norma NS-010, Norma NS-035, ensayo de penetración estándar (SPT), humedad natural, Nechí, Colorado</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>SUELOS PTAP-TANQUES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ESTUDIO DE SUELOS/SUELOS PTAP-TANQUES.pdf</t>
+  </si>
+  <si>
+    <t>GR Ingenieros y Arquitectos S.A.S</t>
+  </si>
+  <si>
+    <t>El documento denominado "Estudio Geotécnico para Diseños del Sistema de Acueducto del Corregimiento Colorado - Antioquia" , tiene como objetivo principal caracterizar las propiedades físicas y mecánicas del suelo en el área donde se implementará un sistema de acueducto, específicamente en el corregimiento de Colorado, perteneciente al municipio de Nechí, Antioquia. Este estudio busca proporcionar información crítica para el diseño de cimentaciones que garanticen la estabilidad y funcionalidad de las obras civiles proyectadas.
+La investigación abarca varias áreas relevantes, incluido el análisis de la geología local, las características climáticas, y la estratigrafía del terreno. Se proporciona un marco contextual que incluye aspectos como la ubicación geográfica de Nechí, el clima, la temperatura, la precipitación y la geología del área, lo que permite situar el estudio dentro de un entendimiento más amplio del entorno físico. Para llevar a cabo este estudio, se utilizaron metodologías estandarizadas que incluyeron exploraciones de campo mediante perforaciones y la realización de ensayos de laboratorio. Las perforaciones se programaron en tres ubicaciones estratégicas: dos de 15 metros de profundidad para el tanque elevado, y una de 6 metros para la planta de tratamiento de agua potable. Esto facilitó la obtención de muestras representativas de los diferentes estratos del suelo, las cuales fueron analizadas para determinar sus propiedades geotécnicas, como la resistencia y compresibilidad, así como para evaluar las condiciones del agua freática. Los ensayos de laboratorio, alineados con la norma NSR-10, permitieron definir la estratigrafía del terreno y caracterizar mecánicamente los suelos. Esta información es crucial para la formulación de diseños de cimentación adecuados, considerando aspectos como la capacidad de carga y posibles asentamientos. El documento presenta un análisis riguroso de los datos obtenidos, concluyendo que el subsuelo en el área está predominantemente compuesto por materiales gruesos, como arenas, lo que indica alta permeabilidad y bajo riesgo de cambios volumétricos significativos. También se reportó que los niveles freáticos oscilan entre 5.70 m y 8.50 m de profundidad, condiciones que deben ser monitoreadas por su variabilidad estacional y su impacto en la estabilidad de las estructuras. Las recomendaciones finales del estudio abordan el tipo de cimentación que se debe emplear, sugiriendo métodos constructivos que consideren las condiciones específicas del terreno. Este enfoque integral permitirá asegurar la durabilidad y eficiencia del sistema de acueducto en el corregimiento de Colorado, contribuyendo significativamente al mejoramiento de la infraestructura hidráulica en la región rural de Nechí, Antioquia.</t>
+  </si>
+  <si>
+    <t>El estudio geotécnico realizado por GR. Ingenieros y Arquitectos S.A.S. para el sistema de acueducto en el corregimiento Colorado ha proporcionado información significativa sobre las características del suelo en el área de intervención. como objetivo principal caracterizar las propiedades físicas y mecánicas del suelo en el área donde se implementará un sistema de acueducto, específicamente en el corregimiento de Colorado, perteneciente al municipio de Nechí, Antioquia. Este estudio busca proporcionar información crítica para el diseño de cimentaciones que garanticen la estabilidad y funcionalidad de las obras civiles proyectadas. Para llevar a cabo este estudio, se utilizaron metodologías estandarizadas que incluyeron exploraciones de campo mediante perforaciones y la realización de ensayos de laboratorio. Las perforaciones se programaron en tres ubicaciones estratégicas: dos de 15 metros de profundidad para el tanque elevado, y una de 6 metros para la planta de tratamiento de agua potable. Esto facilitó la obtención de muestras representativas de los diferentes estratos del suelo, las cuales fueron analizadas para determinar sus propiedades geotécnicas, como la resistencia y compresibilidad, así como para evaluar las condiciones del agua freática.Los resultados más relevantes se detallan a continuación: 1. Estratigrafía y Composición del Suelo: Se identificó que el subsuelo está predominantemente constituido por arenas gruesas, lo que sugiere una alta permeabilidad y baja susceptibilidad a cambios de volumen. Se evidenció que los principales estratos presentes son arenosos con contenido de finos, lo cual minimiza los riesgos de asentamientos significativos bajo carga. 2. Niveles Freáticos: Se reportó la presencia de aguas freáticas a profundidades que varían entre 5.70 m y 8.50 m. Esta condición es variable y depende de factores estacionales, lo que puede influir en la construcción y estabilidad de las estructuras. 3. Ensayos de Laboratorio: Se llevaron a cabo múltiples ensayos (humedad natural, límites de Atterberg, compresión inconfinada) que fueron fundamentales para determinar la resistencia y capacidad portante de los suelos. 4. Recomendaciones de Cimentación: Basándose en el análisis realizado, se concluyó que el tipo de cimentación más adecuado son las zapatas aisladas, dado que estas no alcanzarán asentamientos excesivos bajo las cargas proyectadas para las estructuras del acueducto. 5. Proceso Constructivo: Se sugirió que los métodos constructivos se adapten a las condiciones geotécnicas específicas, considerando la necesidad de excavaciones controladas y el uso de conductos flexibles para las instalaciones de tuberías, garantizando así stibilidad a largo plazo. El documento contiene anexos inmersos en el mismo. El documento contiene anexos inersos en el mismo.</t>
+  </si>
+  <si>
+    <t>Aunque se mencionan consideraciones sobre la vegetación y algunas estructuras existentes, el informe carece de un análisis más profundo sobre el impacto ambiental relacionado con el proyecto, lo que podría ser relevante para la sostenibilidad y aceptación del proyecto por parte de la comunidad.
+Variable: temperatura, precipitación, profundidad, humedad, limite líquido, limite palstico, plasticidad, cohesión, compresión inconfinada, peso unitario humedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geotecnia, acueducto, cimentación, corregimiento Colorado, Nechí, estratigrafía, propiedades del suelo, permeabilidad, zapatas aisladas, niveles freáticos
+</t>
+  </si>
+  <si>
+    <t>P0007</t>
+  </si>
+  <si>
+    <t>SEV Colorado Nechi 08-07-2020</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ESTUDIO GEOELECTRICO/SEV Colorado Nechi 08-07-2020.pdf</t>
+  </si>
+  <si>
+    <t>Ingenieria integral del terreno Geointegra</t>
+  </si>
+  <si>
+    <t>El documento titulado "Estudio Geoeléctrico para Establecer Existencia de Agua Subterránea en el Corregimiento de Colorado" se elabora con el objetivo principal de evaluar la presencia y potencial de recursos de agua subterránea en el corregimiento de Colorado, ubicado en el municipio de Nechí, departamento de Antioquia, Colombia. Este estudio forma parte del Proyecto de Estudios y Diseños del Sistema de Acueducto para los corregimientos de Colorado, Bijagual y Carguero, así como de los sistemas de acueducto y alcantarillado en estas zonas rurales. La investigación se focaliza en la ubicación y análisis de Sondeos Eléctricos Verticales (SEV), dos de los cuales fueron realizados específicamente en el área de estudio. Esta técnica permite determinar las características hidrogeológicas del subsuelo y el potencial acuífero en la región. A través de un análisis geológico y geofísico detallado, se pretende establecer las condiciones adecuadas para la perforación de un pozo profundo que abastese con agua a la comunidad local. El documento aborda varios temas clave, entre ellos: 1. Introducción y Objetivos: Se define el propósito del estudio, que es evaluar la disponibilidad de agua subterránea y establecer la viabilidad de perforar un pozo que aproveche estos recursos. 2. Metodologías Utilizadas: Se emplean técnicas de sondeo geoeléctrico, específicamente el software IPI2WIN para la interpretación de curvas de resistividad y polarización inducida. Este software ayuda a construir un modelo geológico del subsuelo que facilite la identificación de zonas favorables para la explotación de agua. 3. Análisis de Resultados: Se detalla la litología del área, incluyendo la descripción de materiales no consolidados, como sedimentos aluviales y rocosa, y se correlacionan estos hallazgos con el marco geológico regional. Se identifican las capas acuíferas y se recomienda la profundidad exacta para la perforación del pozo exploratorio. 4. Recomendaciones para Ejecución: Se sugiere realizar la perforación exploratoria entre 50 y 80 metros de profundidad, enfocándose en zonas de interés acuífero. Se enfatiza la importancia de un registro eléctrico previo a la perforación para detectar corrientes de agua y condiciones óptimas para la explotación. 5. Consideraciones Ambientales y Técnicas: Se abordan aspectos relacionados con la calidad del agua, la técnica de perforación y la gestión de los lodos utilizados en el proceso.</t>
+  </si>
+  <si>
+    <t>El estudio geoeléctrico realizado en el corregimiento de Colorado, municipio de Nechí, Antioquia, ha permitido determinar la existencia de agua subterránea en la región con alta probabilidad de éxito en la perforación de un pozo profundo. A través de la ejecución de dos Sondeos Eléctricos Verticales (SEV) y la aplicación de software especializado (IPI2WIN) para la interpretación de datos, se obtuvo un modelo del subsuelo que facilita la identificación de acuíferos potencialmente explotables. Los reusltados claves de este informe fueronn los siguientes:
+1. Identificación de Estratigrafía: Se descubrió una capa de materiales no consolidados de origen aluvial (Qal) sobre sedimentos terciarios de la Formación Cerrito (N1N2c) que incluye areniscas, conglomerados, y lodolitas. 2. Reconocimiento de Acuíferos: Los análisis señalados en los SEV indicaron la presencia de depósitos de arenas, gravas y fragmentos de roca que podrían servir como fuentes subterráneas de agua. 3. Recomendaciones para Perforación: Se establece que un pozo exploratorio debe perforarse entre 50 y 80 metros de profundidad, abarcando las capas acuíferas identificadas. El estudio concluye que hay un alto potencial para la explotación de aguas subterráneas en Colorado, lo que podría mejorar significativamente las condiciones de abastecimiento de agua para la comunidad. Además, es fundamental realizar un registro eléctrico antes de iniciar la perforación para mapear con precisión las corrientes de agua y la calidad del recurso hídrico.</t>
+  </si>
+  <si>
+    <t>La inclusión de datos técnicos específicos, como la ubicación de los Sondeos Eléctricos Verticales (SEV) y la caracterización de los estratos geológicos, confiere rigor al estudio. Esto es positivo, ya que permite a los lectores y tomadores de decisiones evaluar la viabilidad de la explotación de aguas subterráneas con fundamentos sólidos.
+Variable: Altura, longitud, latitud, resistividad, espesor, cota base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua subterránea, geoeléctrico, sondeos eléctricos verticales (SEV), acuíferos, Nechí, Colorado, sedimentos aluviales, perforación, IPI2WIN
+</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>COL_DÑO_HIDROLOGICO_CAUCA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/HIDROLOGICO RIO CAUCA/COL_DÑO_HIDROLOGICO_CAUCA.pdf</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>El documento titulado "Informe de Caracterización Hidrológica del Río Cauca a la Altura de la Bocatoma del Acueducto" presenta un análisis detallado de la cuenca del río Cauca, específicamente en el corregimiento de Colorado, municipio de Nechí, Antioquia. El objetivo principal del estudio es estimar los caudales máximos y mínimos, el caudal medio anual, el ciclo de caudales y el caudal ambiental en el sector de interés, con el fin de proporcionar insumos técnicos para el diseño del sistema de acueducto y alcantarillado en la región. El informe se divide en varias secciones clave. La primera incluye una introducción al estudio, donde se establece la relevancia del análisis hidrológico en el contexto del desarrollo local y su vinculación a las políticas ambientales vigentes, especialmente en referencia a la Resolución 865 de 2004 del Ministerio de Ambiente y Desarrollo Sostenible (MADS).Sigue con una sección sobre la zona de estudio, que describe las características geográficas y climáticas que influencian el comportamiento del río. En este sentido, se detalla la ubicación de estaciones limnimétricas significativas, como Margento Automático y Las Flores, que son cruciales para la obtención de datos hidrometeorológicos. Las características y la relevancia de estas estaciones son descritas en términos de porcentaje de datos faltantes y cercanía a la bocatoma, lo que impacta la precisión de los datos obtenidos. El análisis hidrológico se basa en la recopilación de información histórica sobre caudales y condiciones meteorológicas desde 1966 hasta 2021, utilizando equipos y metodologías del Instituto de Hidrología, Meteorología y Estudios Ambientales (IDEAM). Para procesar estos datos, se utilizó software especializado como TauDEM (Terrain Analysis Using Digital Elevation Models) en la plataforma MapWindow GIS 4.7, lo cual permitió la creación de modelos digitales del terreno y el análisis morfométrico del área de drenaje. Las metodologías aplicadas para el análisis de caudales fueron diversas e incluyeron el uso de distribuciones de probabilidad (Normal, Log Normal, Gumbel, Log Gumbel y Pearson) para calcular las crecidas de diseño y los caudales mínimos de estiaje asociados a diferentes periodos de retorno (2.33, 5, 10, 25, 50 y 100 años). Además, se estableció un análisis de frecuencia para identificar caudales extremos que permiten comprender mejor la variabilidad hidrológica en el área. Finalmente, las conclusiones y recomendaciones del estudio abarcan la importancia de considerar los caudales extremos en el diseño del acueducto y la necesidad de implementar estrategias de gestión eficiente del agua para garantizar la sostenibilidad de los recursos hídricos en la región. Esto implica un enfoque de conservación y adaptación ante el cambio climático, resaltando la importancia de monitorear continuamente las condiciones hidrológicas para la planificación futura.</t>
+  </si>
+  <si>
+    <t>El documento "Informe de caracterización hidrológica del río Cauca a la altura de la bocatoma del acueducto" proporciona un análisis detallado de las características hidrológicas del río Cauca en el corregimiento de Colorado, municipio de Nechí, Antioquia, en el contexto del desarrollo del sistema de acueducto. Las metodologías aplicadas para el análisis de caudales fueron diversas e incluyeron el uso de distribuciones de probabilidad (Normal, Log Normal, Gumbel, Log Gumbel y Pearson) para calcular las crecidas de diseño y los caudales mínimos de estiaje asociados a diferentes periodos de retorno (2.33, 5, 10, 25, 50 y 100 años). Además, se estableció un análisis de frecuencia para identificar caudales extremos que permiten comprender mejor la variabilidad hidrológica en el área. Los principales resultados y conclusiones se resumen a continuación: 1. Caudal Medio Anual: Se estimó un caudal medio anual del río Cauca de 1335.98 m³/s a la altura de la bocatoma. 2. Caudales Máximos y Mínimos: A través del análisis de frecuencia, se determinó un caudal máximo de 4333.91 m³/s para un período de retorno de 100 años, y un caudal mínimo de 183.94 m³/s asociado a la misma probabilidad. 3. Ciclo Anual de Caudales: Se identificó un comportamiento bimodal en el caudal, con picos en los meses de agosto, septiembre y octubre, y mínimos en los meses secos de noviembre a febrero. Septiembre presenta el caudal más alto (1664 m³/s), mientras que enero el más bajo (1132 m³/s). 4. Caudal Ambiental: Se calculó un caudal ambiental de 281.5 m³/s, siguiendo la metodología de la resolución 865 de 2004 del Ministerio de Ambiente.  Se concluye que los caudales máximos y mínimos estimados son adecuados para guiar las decisiones de diseño y gestión de recursos hídricos a largo plazo en la región.</t>
+  </si>
+  <si>
+    <t>Los resultados se presentan de manera cuantitativa, lo que permite una interpretación precisa y la posibilidad de usar estos datos en la toma de decisiones relacionadas con la gestión de recursos hídricos.
+Variable: Caudal ambiental. caudal máximos y minimos, cuadal medio anual, precipitación, área, perimetro, altitud media, longitud el cauce, ancho de la cuenca</t>
+  </si>
+  <si>
+    <t>Hidrología, Caudal, río Cauca, acueducto, Colorado, Nechí, análisis de frecuencia, caudal medio, caudal máximo, caudal mínimo, caudal ambiental, Resolución 865, recursos hídricos</t>
+  </si>
+  <si>
+    <t>P0009</t>
+  </si>
+  <si>
+    <t>COL_INF_TOPOGRAFIA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/COL_INF_TOPOGRAFIA.pdf</t>
+  </si>
+  <si>
+    <t>Comisión topográfica  KSIE7E</t>
+  </si>
+  <si>
+    <t>El informe titulado "Informe - Topografía Corregimiento de Colorado, Municipio de Nechí, Antioquia", fechado el 16 de marzo de 2020, documenta las actividades y resultados de un estudio topográfico realizado en la región de Colorado, dentro del municipio de Nechí, en el departamento de Antioquia, Colombia. El objetivo principal del informe es llevar a cabo un levantamiento topográfico altiplanimétrico del corregimiento de Colorado, generando datos precisos del terreno que faciliten el diseño y construcción de infraestructura en la zona. Esto incluye la recopilación de información sobre elementos tales como paramentos, postes de servicios, luminarias y otros aspectos relevantes del entorno. El informe se compone de varios secciones clave: 1. Introducción: Se establece el contexto y la importancia del levantamiento, describiendo la metodología GNSS (Sistema de Navegación Global por Satélite) adoptada para la obtención de datos precisos.2. Objetivos y Alcances: Se clarifican los objetivos específicos del estudio, así como el alcance de las mediciones que incluyen, entre otros, el registro de infraestructuras y el levantamiento de perfiles. 
+3. Metodología: Se describe en detalle el proceso de levantamiento que incluyó:
+- Materialización y georreferenciación de puntos mediante excavación y uso de mortero.
+- Creación de puntos de referencia mediante equipos GNSS, garantizando elevada precisión a nivel milimétrico.
+- Uso de estaciones totales para la recolección de datos, seguido de un procesamiento digital que contempla la elaboración de planos y documentos que reflejan las mediciones realizadas.
+4. Equipos y Personal: Se detalla la lista de equipos utilizados, tales como estaciones totales Topcon y niveles de precisión, así como la composición del equipo humano que llevó a cabo el estudio, que incluye un topógrafo y un auxiliar de topografía. 5. Registro Fotográfico: Se incluye un compendio visual de las actividades de campo, lo que complementa los datos obtenidos con observaciones directas. 6. Resultados y Conclusiones: Se sintetizan los hallazgos del estudio, donde se destacan condiciones del terreno, el estado de la infraestructura existente y recomendaciones para futuras intervenciones.</t>
+  </si>
+  <si>
+    <t>El informe sobre la topografía del corregimiento de Colorado, ubicado en el municipio de Nechí, Antioquia, presenta varios resultados destacados del levantamiento topográfico realizado, así como conclusiones y recomendaciones para futuras actividades. El estudio se basa en técnicas de georreferenciación utilizando equipos de GNSS para asegurar la precisión en la ubicación de los puntos, complementado con levantamientos a través de estaciones totales. Estos métodos, junto a software de CAD, permiten la creación de representaciones gráficas y cálculos que son críticos para el diseño de cualquier proyecto de infraestructura. Los reusltados relevantes de este informe fueron los siguientes: 1. Dimensiones de Infraestructura: Se determinó que la superficie de rodadura de la vía presenta un ancho promedio de 4.50 metros, con una pendiente inferior al 11%, siendo clasificada como terreno escarpado. 2. Condición del Terreno: La superficie de rodadura identificada está compuesta de material granular, aunque no seleccionado, y presenta un índice de plasticidad (IP) superior a cero. Esto, combinado con un drenaje superficial deficiente, resulta en un estado regular de la superficie. 3. Georreferenciación y Puntos de Control: Se establecieron puntos de amarre en concreto que garantizan un amarre confiable para trabajos de localización y nivelación futuros, siendo los puntos MJ-1 y MJ-2 los más relevantes. 
+4. Cota de Agua: Se registró una cota espejo de agua de 36.882 metros, considerándose así para el análisis de inundaciones, donde se sugiere tener en cuenta una cota de inundación de 38.800 metros para el diseño de futuras infraestructuras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/CARTERA DE COORDENADAS.File folder
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/CIERRE POLIGONALES.File folder
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/Geolocalizacion.File folder
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIa/PLANOS DWG.File folder
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/PLANOS PDF.File folder
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/REGISTRO FOTOGRAFICO.File folder
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pesar de su solidez, el documento podría beneficiarse de una mayor profundidad en ciertos puntos, por ejemplo, en el análisis de las implicaciones de las condiciones del terreno para proyectos específicos. Algunos apartados pueden parecer insuficientes para quien busca una evaluación más exhaustiva.
+Variable: superficie de rodadura, pendiente, índice de plasticidad, cota de agua, drenaje superficial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantamiento topográfico, corregimiento de Colorado, Nechí, GNSS, georreferenciación, superficie de rodadura, pendiente, índice de plasticidad, cota de agua, drenaje superficial </t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>Inf_Geologalizacion_Colorado</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/Geolocalizacion/Inf_Geologalizacion_Colorado.pdf</t>
+  </si>
+  <si>
+    <t>El documento titulado “Informe (Geolocalización) Amarre a la Red Básica de Vértices Geodésicos para los Levantamientos Topográficos en el corregimiento de Colorado Municipio de Nechí, Antioquia” documenta el proceso de georreferenciación y la materialización de puntos topográficos base que permitió el levantamiento topográfico preciso en la zona de estudio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe está estructurado en varias secciones que abarcan tanto la información general del proyecto como detalles técnicos sobre las metodologías empleadas. Comienza con una descripción del contexto geográfico y la relevancia de la georreferenciación mediante la utilización de puntos de control pasivos, en este caso, el punto geodésico 56-AN-7 del Instituto Geográfico Agustín Codazzi (IGAC). Este punto sirvió como referencia para el levantamiento, permitiendo la integración de equipos GNSS para una navegación simultánea con los puntos materializados en campo, denominados MJ-1 y MJ-2. En cuanto a la materialización de los puntos topográficos base, el informe detalla el procedimiento constructivo que incluye la excavación de un hueco de 60 cm de profundidad y 25 cm de diámetro, donde se coloca una mezcla de mortero y piedra, culminando con la instalación de una placa central. Esto garantiza la estabilidad y precisión necesarias para los puntos de control. El proceso de georreferenciación es tratado en profundidad, destacando la importancia de obtener coordenadas exactas para la localización de las entidades geográficas involucradas. Esta sección detalla las observaciones GNSS y cómo se llevó a cabo el postproceso de datos utilizando el software Topcon Tools V8.2.3, que permitió calcular las coordenadas X, Y, Z de los puntos topográficos a partir de la información del punto de control 56-AN-7. Además, se presentaron gráficos y tablas que incluyen datos de ubicación, tiempos de rastreo y coordenadas actualizadas, que respaldan los resultados obtenidos. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/Geolocalizacion</t>
+  </si>
+  <si>
+    <t>Se proporciona información técnica relevante sobre la materialización de puntos topográficos y el uso de tecnología GNSS</t>
+  </si>
+  <si>
+    <t>Geolocalización, vértices geodésicos, levantamientos topográficos, corregimiento de Colorado, municipio de Nechí, Antioquia, GNSS, observaciones GNSS, postproceso, Topcon Tools, materialización de puntos base, red pasiva, coordenadas geográficas, coordenadas Gauss-Krüger, navegación simultánea, altura elipsoidal, elevación, excavación de mojones, mortero y piedra, datos de ubicación, tiempos de rastreo, precisión milimétrica, infraestructura geográfica, topografía, georreferenciación, puntos de control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +419,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +446,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,11 +502,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +591,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,6 +1072,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -683,13 +1099,6 @@
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -739,7 +1148,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1027,13 +1436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -1051,17 +1460,17 @@
     <col min="18" max="18" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1107,207 +1516,567 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+    <row r="5" spans="1:18">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2021</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
+    <row r="11" spans="1:18">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1327,7 +2096,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1347,51 +2116,11 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+    <row r="14" spans="1:18">
+      <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R17" s="1"/>
+    <row r="15" spans="1:18">
+      <c r="R15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,15 +2132,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1555,28 +2275,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>